--- a/Data/VaccineModule.xlsx
+++ b/Data/VaccineModule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DA525C-C6E1-2C40-B223-C95DCE81E48F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841F9594-C6E6-F443-9F86-4065F60ACBB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39380" yWindow="2520" windowWidth="27240" windowHeight="16040" xr2:uid="{EFE941C5-B77B-7348-9E1F-345049F687CA}"/>
+    <workbookView xWindow="-580" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{EFE941C5-B77B-7348-9E1F-345049F687CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>• Yes
 • No</t>
@@ -178,10 +178,6 @@
   </si>
   <si>
     <t xml:space="preserve">How likely are you to get the first generation COVID-19 vaccine, as soon as it's available?  </t>
-  </si>
-  <si>
-    <t>• Very likely
-• Somewhat likely                                                                     • Not very likely                                                                    • Not at all likely</t>
   </si>
   <si>
     <t>Question</t>
@@ -224,6 +220,33 @@
   </si>
   <si>
     <t>Answers</t>
+  </si>
+  <si>
+    <t>Occurrence</t>
+  </si>
+  <si>
+    <t>• Already received                    • Very likely
+• Somewhat likely                                                                     • Not very likely                                                                    • Not at all likely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How likely are you to get your child the first generation COVID-19 vaccine, as soon as it's available? </t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4957941/
+https://www.ipsos.com/en-us/news-polls/axios-ipsos-coronavirus-index</t>
+  </si>
+  <si>
+    <t>• Already received           • Very likely
+• Somewhat likely                                                               • Not very likely                                                                     • Not at all likely</t>
+  </si>
+  <si>
+    <t>Do you have any concerns about receiving the COVID-19 vaccine? Please explain. </t>
+  </si>
+  <si>
+    <t>Open Ended</t>
+  </si>
+  <si>
+    <t>RAPID Developed</t>
   </si>
 </sst>
 </file>
@@ -292,15 +315,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -314,6 +334,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -630,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3804842-5107-8E44-83D8-AABC6BC398DB}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,21 +672,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -669,112 +698,159 @@
         <v>1</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1">
+        <v>43</v>
+      </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="E6" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="46" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Data/VaccineModule.xlsx
+++ b/Data/VaccineModule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328570B5-D540-1645-B3D1-5C60BE03E352}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E3A823-29D1-6D4C-B4F9-FAD2A5A380E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45000" yWindow="-3940" windowWidth="22100" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15200" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>Question</t>
   </si>
@@ -220,14 +220,100 @@
 • Will definitely not get one</t>
   </si>
   <si>
+    <t xml:space="preserve">How likely are you to get the first generation COVID-19 vaccine as soon as it's available?  </t>
+  </si>
+  <si>
+    <t>• Already received                    • Very likely
+• Somewhat likely                                                                     • Not very likely                                                                    • Not at all likely</t>
+  </si>
+  <si>
+    <t>• Already received           • Very likely
+• Somewhat likely                                                               • Not very likely                                                                     • Not at all likely</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4957941/
+https://www.ipsos.com/en-us/news-polls/axios-ipsos-coronavirus-index</t>
+  </si>
+  <si>
+    <t>Do you have any concerns about receiving the COVID-19 vaccine? Please explain. </t>
+  </si>
+  <si>
+    <t>Open Ended</t>
+  </si>
+  <si>
+    <t>How do you feel about the COVID-19 vaccine in terms of its safety and effectiveness, and what are your plans in terms of whether or not to get it?</t>
+  </si>
+  <si>
+    <t>RAPID Team Developed</t>
+  </si>
+  <si>
+    <t>33, 35, 41, 43, 45</t>
+  </si>
+  <si>
+    <t>41, 43, 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How likely are you to get your child the COVID-19 vaccine as soon as it's available? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you received the COVID-19 vaccine? </t>
+  </si>
+  <si>
+    <t>•Yes 
+•No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+[Display this question if Have you received the COVID-19 vaccine = No]
+Why have you not yet received the COVID-19 vaccine? </t>
+  </si>
+  <si>
+    <t>• I am not eligible yet, based on my age, type of job, etc.
+• I am eligible but I haven't gotten vaccinated because I have not been able to get an appointment
+• I am eligible but I haven’t gotten vaccinated because I don’t know how to get an appointment to get vaccinated                                                              • I am eligible but I haven’t gotten vaccinated because I can’t get to a vaccination site due to where I live, time off from work, etc                                                                    • I am eligible but I haven’t gotten vaccinated because I am planning to “wait and see” the vaccine is safe and effective
+• I am eligible but I haven’t gotten vaccinated because I do not believe the vaccine is safe/effective                                                                    • Other, please specify</t>
+  </si>
+  <si>
+    <t>[Display this question if Have you received the COVID-19 vaccine = No]
+Have your feelings about getting the COVID-19 vaccine changed since it became available?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• I’m more likely to get it than I was at first           • No change in my overall feelings
+• I’m less likely to get it than I was at first    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Display this question if Have your feelings about getting the COVID-19 vaccine changed since it became available? = I’m less likely to get it than I was at first ]
+If you have become less likely to get the vaccine than you originally were, what are your reasons? Select all that apply. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• I have heard from friends/relatives that it is unsafe
+• I have heard from TV or the internet that it is unsafe
+• I no longer think I need it
+• Other, please specify      </t>
+  </si>
+  <si>
+    <t>[Display this question if Have your feelings about getting the COVID-19 vaccine changed since it became available? = I’m more likely to get it than I was at first ]
+If you have become more likely to get the vaccine than you were at first, what are your reasons? Select all that apply.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• I learned more about the effectiveness of it from TV or the news
+• I learned more about the safety of it from TV or the news
+• My friends/family convinced me it was safe and/or effective
+• I want be able to do things that only vaccinated people can do
+• Other, please specify </t>
+  </si>
+  <si>
+    <t>33, 35, 41, 43, 45, 49, 53, 57, 61, 65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33, 35, 41, 43, 45, </t>
+  </si>
+  <si>
+    <t>49, 53, 57, 61, 65</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>How likely is/are your</t>
+      <t>How likely are you to get your</t>
     </r>
     <r>
       <rPr>
@@ -246,104 +332,15 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> to get a flu vaccination this season (2020-2021)—that is, this Fall or Winter?</t>
+      <t>  a flu vaccination this season (2020-2021)—that is, this Fall or Winter?</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">How likely are you to get the first generation COVID-19 vaccine as soon as it's available?  </t>
-  </si>
-  <si>
-    <t>• Already received                    • Very likely
-• Somewhat likely                                                                     • Not very likely                                                                    • Not at all likely</t>
-  </si>
-  <si>
-    <t>• Already received           • Very likely
-• Somewhat likely                                                               • Not very likely                                                                     • Not at all likely</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4957941/
-https://www.ipsos.com/en-us/news-polls/axios-ipsos-coronavirus-index</t>
-  </si>
-  <si>
-    <t>Do you have any concerns about receiving the COVID-19 vaccine? Please explain. </t>
-  </si>
-  <si>
-    <t>Open Ended</t>
-  </si>
-  <si>
-    <t>How do you feel about the COVID-19 vaccine in terms of its safety and effectiveness, and what are your plans in terms of whether or not to get it?</t>
-  </si>
-  <si>
-    <t>RAPID Team Developed</t>
-  </si>
-  <si>
-    <t>33, 35, 41, 43, 45</t>
-  </si>
-  <si>
-    <t>41, 43, 45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How likely are you to get your child the COVID-19 vaccine as soon as it's available? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Have you received the COVID-19 vaccine? </t>
-  </si>
-  <si>
-    <t>•Yes 
-•No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-[Display this question if Have you received the COVID-19 vaccine = No]
-Why have you not yet received the COVID-19 vaccine? </t>
-  </si>
-  <si>
-    <t>• I am not eligible yet, based on my age, type of job, etc.
-• I am eligible but I haven't gotten vaccinated because I have not been able to get an appointment
-• I am eligible but I haven’t gotten vaccinated because I don’t know how to get an appointment to get vaccinated                                                              • I am eligible but I haven’t gotten vaccinated because I can’t get to a vaccination site due to where I live, time off from work, etc                                                                    • I am eligible but I haven’t gotten vaccinated because I am planning to “wait and see” the vaccine is safe and effective
-• I am eligible but I haven’t gotten vaccinated because I do not believe the vaccine is safe/effective                                                                    • Other, please specify</t>
-  </si>
-  <si>
-    <t>[Display this question if Have you received the COVID-19 vaccine = No]
-Have your feelings about getting the COVID-19 vaccine changed since it became available?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• I’m more likely to get it than I was at first           • No change in my overall feelings
-• I’m less likely to get it than I was at first    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Display this question if Have your feelings about getting the COVID-19 vaccine changed since it became available? = I’m less likely to get it than I was at first ]
-If you have become less likely to get the vaccine than you originally were, what are your reasons? Select all that apply. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">• I have heard from friends/relatives that it is unsafe
-• I have heard from TV or the internet that it is unsafe
-• I no longer think I need it
-• Other, please specify      </t>
-  </si>
-  <si>
-    <t>[Display this question if Have your feelings about getting the COVID-19 vaccine changed since it became available? = I’m more likely to get it than I was at first ]
-If you have become more likely to get the vaccine than you were at first, what are your reasons? Select all that apply.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• I learned more about the effectiveness of it from TV or the news
-• I learned more about the safety of it from TV or the news
-• My friends/family convinced me it was safe and/or effective
-• I want be able to do things that only vaccinated people can do
-• Other, please specify </t>
-  </si>
-  <si>
-    <t>33, 35, 41, 43, 45, 49, 53, 57, 61</t>
-  </si>
-  <si>
-    <t>49, 53, 57, 61</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1623,7 +1620,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="35" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
@@ -1633,7 +1630,7 @@
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1650,7 +1647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="68">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1662,10 +1659,10 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="136" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1679,10 +1676,10 @@
         <v>11</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="136" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1696,10 +1693,10 @@
         <v>11</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="51" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1713,10 +1710,10 @@
         <v>15</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="51" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -1730,10 +1727,10 @@
         <v>15</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="119" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1747,30 +1744,30 @@
         <v>15</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="119" customHeight="1">
       <c r="A8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="85" customHeight="1">
       <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
@@ -1779,12 +1776,12 @@
         <v>15</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="119" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>19</v>
@@ -1796,114 +1793,114 @@
         <v>15</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="102" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="102" customHeight="1">
       <c r="A12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="C12" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="408" customHeight="1">
       <c r="A13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="C13" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="408" customHeight="1">
       <c r="A14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="C14" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="408" customHeight="1">
       <c r="A15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="C15" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="408" customHeight="1">
       <c r="A16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="C16" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="46" customHeight="1">
       <c r="A17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="C17" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Data/VaccineModule.xlsx
+++ b/Data/VaccineModule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E3A823-29D1-6D4C-B4F9-FAD2A5A380E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09819D1E-D14B-4A4A-9B3A-4E8C935DB1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15200" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15200" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
   <si>
     <t>Question</t>
   </si>
@@ -253,9 +253,6 @@
     <t>41, 43, 45</t>
   </si>
   <si>
-    <t xml:space="preserve">How likely are you to get your child the COVID-19 vaccine as soon as it's available? </t>
-  </si>
-  <si>
     <t xml:space="preserve">Have you received the COVID-19 vaccine? </t>
   </si>
   <si>
@@ -307,9 +304,6 @@
   </si>
   <si>
     <t xml:space="preserve">33, 35, 41, 43, 45, </t>
-  </si>
-  <si>
-    <t>49, 53, 57, 61, 65</t>
   </si>
   <si>
     <r>
@@ -335,12 +329,52 @@
       <t>  a flu vaccination this season (2020-2021)—that is, this Fall or Winter?</t>
     </r>
   </si>
+  <si>
+    <t>33, 35, 41, 43, 45, 49, 53, 57, 61, 65, 75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33, 35, 41, 43, 45, 49, 53, 57, 61, 65, </t>
+  </si>
+  <si>
+    <t>49, 53, 57, 61, 65, 75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How likely are you to get your child under 12 years of age the COVID-19 vaccine as soon as it's available? </t>
+  </si>
+  <si>
+    <t>Do you have a child aged 12 or older?</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Has your child age 12 or older received the COVID-19 vaccine?</t>
+  </si>
+  <si>
+    <t>Why has your child age 12 or older not yet received the COVID-19 vaccine?</t>
+  </si>
+  <si>
+    <t>• I have not been able to get an appointment for my child
+• I can't get to a vaccination site due to where I live, time off from work, etc. 
+• I am planning to "wait and see" if the vaccine is safe and effective before my child is vaccinated
+• I do not believe the vaccine is safe/effective
+• Other, Please specify</t>
+  </si>
+  <si>
+    <t>How likely are you to get a booster of the COVID-19 vaccine as soon as it’s available?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Very likely
+• Somewhat likely
+• Not very likely
+• Not at all likely </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1614,13 +1648,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
@@ -1630,7 +1664,7 @@
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1">
+    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1647,7 +1681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="68">
+    <row r="2" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1659,10 +1693,10 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="136" customHeight="1">
+    <row r="3" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1676,10 +1710,10 @@
         <v>11</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="136" customHeight="1">
+    <row r="4" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1693,10 +1727,10 @@
         <v>11</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="51" customHeight="1">
+    <row r="5" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1710,10 +1744,10 @@
         <v>15</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="51" customHeight="1">
+    <row r="6" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -1730,7 +1764,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="119" customHeight="1">
+    <row r="7" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1747,7 +1781,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="119" customHeight="1">
+    <row r="8" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
@@ -1759,10 +1793,10 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="85" customHeight="1">
+    <row r="9" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1779,9 +1813,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="119" customHeight="1">
+    <row r="10" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>19</v>
@@ -1796,9 +1830,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="102" customHeight="1">
+    <row r="11" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>22</v>
@@ -1810,96 +1844,148 @@
         <v>23</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="102" customHeight="1">
+    <row r="12" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="9"/>
       <c r="E12" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="408" customHeight="1">
+    <row r="13" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>27</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="9"/>
       <c r="E13" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="408" customHeight="1">
+    <row r="14" spans="1:5" ht="230" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>27</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="9"/>
       <c r="E14" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="408" customHeight="1">
+    <row r="15" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="408" customHeight="1">
+    <row r="16" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="46" customHeight="1">
+    <row r="17" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="118" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="7" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Data/VaccineModule.xlsx
+++ b/Data/VaccineModule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09819D1E-D14B-4A4A-9B3A-4E8C935DB1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0D1D05C-0116-1641-9146-07E9B414661F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="15200" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
   <si>
     <t>Question</t>
   </si>
@@ -330,9 +330,6 @@
     </r>
   </si>
   <si>
-    <t>33, 35, 41, 43, 45, 49, 53, 57, 61, 65, 75</t>
-  </si>
-  <si>
     <t xml:space="preserve">33, 35, 41, 43, 45, 49, 53, 57, 61, 65, </t>
   </si>
   <si>
@@ -343,9 +340,6 @@
   </si>
   <si>
     <t>Do you have a child aged 12 or older?</t>
-  </si>
-  <si>
-    <t>75</t>
   </si>
   <si>
     <t>Has your child age 12 or older received the COVID-19 vaccine?</t>
@@ -368,6 +362,45 @@
 • Somewhat likely
 • Not very likely
 • Not at all likely </t>
+  </si>
+  <si>
+    <t>How likely are you to get the COVID-19 vaccine for your child between the ages of 5-12 years?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o Already received  
+o Very likely  
+o Somewhat likely 
+o Not very likely 
+o Not at all likely </t>
+  </si>
+  <si>
+    <t>Please select the best answer about when you would have your child(ren) under 12 years of age receive the COVID-19 vaccine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o Already received 
+o Very likely 
+o Somewhat likely
+o Not very likely 
+o Not at all likely </t>
+  </si>
+  <si>
+    <t>Where would you prefer to have your child(ren) under 12 years of age receive the COVID-19 vaccine?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o Our pediatrician's office
+o My child's school 
+o A drop-in site in my community (e.g., at a church, park, or other public space)  
+o A local pharmacy 
+o Other, please specify:  </t>
+  </si>
+  <si>
+    <t>33, 35, 41, 43, 45, 49, 53, 57, 61, 65, 75, 87</t>
+  </si>
+  <si>
+    <t>75, 87</t>
+  </si>
+  <si>
+    <t>49, 53, 57, 61, 65, 75, 87</t>
   </si>
 </sst>
 </file>
@@ -432,7 +465,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -455,14 +488,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -484,9 +527,20 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1648,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1665,328 +1719,365 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="9" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="D11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="230" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="118" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="230" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="118" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+      <c r="D21" s="12"/>
+      <c r="E21" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B22" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="7" t="s">
-        <v>29</v>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="157" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="1">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Data/VaccineModule.xlsx
+++ b/Data/VaccineModule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0D1D05C-0116-1641-9146-07E9B414661F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B10E249B-B7CE-594A-B5A4-7F4492D9ED9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15200" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12320" yWindow="500" windowWidth="15420" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
   <si>
     <t>Question</t>
   </si>
@@ -57,18 +57,6 @@
   </si>
   <si>
     <t>RAPID Team modified</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4957941/ </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Have you ever decided not to have your child get a shot for reasons other than illness or allergy? Select all that apply. </t>
@@ -231,10 +219,6 @@
 • Somewhat likely                                                               • Not very likely                                                                     • Not at all likely</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4957941/
-https://www.ipsos.com/en-us/news-polls/axios-ipsos-coronavirus-index</t>
-  </si>
-  <si>
     <t>Do you have any concerns about receiving the COVID-19 vaccine? Please explain. </t>
   </si>
   <si>
@@ -245,12 +229,6 @@
   </si>
   <si>
     <t>RAPID Team Developed</t>
-  </si>
-  <si>
-    <t>33, 35, 41, 43, 45</t>
-  </si>
-  <si>
-    <t>41, 43, 45</t>
   </si>
   <si>
     <t xml:space="preserve">Have you received the COVID-19 vaccine? </t>
@@ -298,12 +276,6 @@
 • My friends/family convinced me it was safe and/or effective
 • I want be able to do things that only vaccinated people can do
 • Other, please specify </t>
-  </si>
-  <si>
-    <t>33, 35, 41, 43, 45, 49, 53, 57, 61, 65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33, 35, 41, 43, 45, </t>
   </si>
   <si>
     <r>
@@ -330,12 +302,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">33, 35, 41, 43, 45, 49, 53, 57, 61, 65, </t>
-  </si>
-  <si>
-    <t>49, 53, 57, 61, 65, 75</t>
-  </si>
-  <si>
     <t xml:space="preserve">How likely are you to get your child under 12 years of age the COVID-19 vaccine as soon as it's available? </t>
   </si>
   <si>
@@ -394,31 +360,52 @@
 o Other, please specify:  </t>
   </si>
   <si>
-    <t>33, 35, 41, 43, 45, 49, 53, 57, 61, 65, 75, 87</t>
-  </si>
-  <si>
-    <t>75, 87</t>
-  </si>
-  <si>
-    <t>49, 53, 57, 61, 65, 75, 87</t>
+    <t xml:space="preserve">Nov 17 - Nov 19, Dec 1 - Dec 3, Dec 1 - Dec 3, Feb 3 - Feb 6, Feb 17 - Feb 19, </t>
+  </si>
+  <si>
+    <t>Nov 17 - Nov 19, Dec 1 - Dec 3, Dec 1 - Dec 3, Feb 3 - Feb 6, Feb 17 - Feb 19</t>
+  </si>
+  <si>
+    <t>Dec 1 - Dec 3, Feb 3 - Feb 6, Feb 17 - Feb 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/pmc/articles/PMCMarch 17 - March 2057941/ </t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMCMarch 17 - March 2057941/
+https://www.ipsos.com/en-us/news-polls/axios-ipsos-coronavirus-index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov 17 - Nov 19, Dec 1 - Dec 3, Dec 1 - Dec 3, Feb 3 - Feb 6, Feb 17 - Feb 19, March 17 - March 20, April 14 - April 16, May 12 - May 14, June 9 - June 11, 65, </t>
+  </si>
+  <si>
+    <t>Nov 17 - Nov 19, Dec 1 - Dec 3, Dec 1 - Dec 3, Feb 3 - Feb 6, Feb 17 - Feb 19, March 17 - March 20, April 14 - April 16, May 12 - May 14, June 9 - June 11, 65</t>
+  </si>
+  <si>
+    <t>March 17 - March 20, April 14 - April 16, May 12 - May 14, June 9 - June 11, 65, September 15 - September 17</t>
+  </si>
+  <si>
+    <t>Nov 17 - Nov 19, Dec 1 - Dec 3, Dec 1 - Dec 3, Feb 3 - Feb 6, Feb 17 - Feb 19, March 17 - March 20, April 14 - April 16, May 12 - May 14, June 9 - June 11, 65, September 15 - September 17, December 8 - December 14</t>
+  </si>
+  <si>
+    <t>September 15 - September 17, December 8 - December 14</t>
+  </si>
+  <si>
+    <t>March 17 - March 20, April 14 - April 16, May 12 - May 14, June 9 - June 11, 65, September 15 - September 17, December 8 - December 14</t>
+  </si>
+  <si>
+    <t>December 8 - December 14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -512,28 +499,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1704,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1747,7 +1734,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
@@ -1761,15 +1748,15 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -1778,124 +1765,124 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>58</v>
@@ -1903,10 +1890,10 @@
     </row>
     <row r="12" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="8"/>
@@ -1916,10 +1903,10 @@
     </row>
     <row r="13" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="8"/>
@@ -1929,10 +1916,10 @@
     </row>
     <row r="14" spans="1:5" ht="230" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="8"/>
@@ -1942,13 +1929,13 @@
     </row>
     <row r="15" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="9" t="s">
@@ -1957,13 +1944,13 @@
     </row>
     <row r="16" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="9" t="s">
@@ -1972,13 +1959,13 @@
     </row>
     <row r="17" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="9" t="s">
@@ -1987,13 +1974,13 @@
     </row>
     <row r="18" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="9" t="s">
@@ -2002,13 +1989,13 @@
     </row>
     <row r="19" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="9" t="s">
@@ -2017,10 +2004,10 @@
     </row>
     <row r="20" spans="1:5" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="8"/>
@@ -2030,60 +2017,60 @@
     </row>
     <row r="21" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="6" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="13">
-        <v>87</v>
+      <c r="E22" s="13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="13">
-        <v>87</v>
+      <c r="E23" s="13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="157" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="1">
-        <v>87</v>
+        <v>49</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4957941/ " xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4957941/ " xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Data/VaccineModule.xlsx
+++ b/Data/VaccineModule.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,12 +15,23 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
   <si>
     <t>Question</t>
   </si>
@@ -34,7 +45,7 @@
     <t>Source Link</t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <t>Dates Used</t>
   </si>
   <si>
     <t xml:space="preserve">Has your child(ren) missed a scheduled vaccine this year? </t>
@@ -45,6 +56,9 @@
   </si>
   <si>
     <t>Developed by RAPID Team</t>
+  </si>
+  <si>
+    <t>11/17/2020-11/19/2020 12/01/2020-12/03/2020   02/03/2021-02/06/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021  06/09/2021-06/11/2021 07/07/2021-07/09/2021</t>
   </si>
   <si>
     <t>Have you ever delayed having your child get a shot for reasons other than illness or allergy? Select all that apply</t>
@@ -57,6 +71,9 @@
   </si>
   <si>
     <t>RAPID Team modified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/pmc/articles/PMCMarch 17 - March 2057941/ </t>
   </si>
   <si>
     <t xml:space="preserve">Have you ever decided not to have your child get a shot for reasons other than illness or allergy? Select all that apply. </t>
@@ -117,6 +134,9 @@
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5923753/</t>
   </si>
   <si>
+    <t xml:space="preserve">11/17/2020-11/19/2020 12/01/2020-12/03/2020   02/03/2021-02/06/2021 02/17/2021-02/19/2021 </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -171,6 +191,9 @@
 •Unsure</t>
   </si>
   <si>
+    <t xml:space="preserve">11/17/2020-11/19/2020 12/01/2020-12/03/2020   02/03 /2021-02/06/2021 02/17/2021-02/19/2021 </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -208,74 +231,23 @@
 • Will definitely not get one</t>
   </si>
   <si>
+    <t>How do you feel about the COVID-19 vaccine in terms of its safety and effectiveness, and what are your plans in terms of whether or not to get it?</t>
+  </si>
+  <si>
+    <t>Open Ended</t>
+  </si>
+  <si>
+    <t>RAPID Team Developed</t>
+  </si>
+  <si>
+    <t>03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021  06/09/2021-06/11/2021 07/07/2021-07/09/2021 09/15/2021-09/17/2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">How likely are you to get the first generation COVID-19 vaccine as soon as it's available?  </t>
   </si>
   <si>
     <t>• Already received                    • Very likely
 • Somewhat likely                                                                     • Not very likely                                                                    • Not at all likely</t>
-  </si>
-  <si>
-    <t>• Already received           • Very likely
-• Somewhat likely                                                               • Not very likely                                                                     • Not at all likely</t>
-  </si>
-  <si>
-    <t>Do you have any concerns about receiving the COVID-19 vaccine? Please explain. </t>
-  </si>
-  <si>
-    <t>Open Ended</t>
-  </si>
-  <si>
-    <t>How do you feel about the COVID-19 vaccine in terms of its safety and effectiveness, and what are your plans in terms of whether or not to get it?</t>
-  </si>
-  <si>
-    <t>RAPID Team Developed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Have you received the COVID-19 vaccine? </t>
-  </si>
-  <si>
-    <t>•Yes 
-•No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-[Display this question if Have you received the COVID-19 vaccine = No]
-Why have you not yet received the COVID-19 vaccine? </t>
-  </si>
-  <si>
-    <t>• I am not eligible yet, based on my age, type of job, etc.
-• I am eligible but I haven't gotten vaccinated because I have not been able to get an appointment
-• I am eligible but I haven’t gotten vaccinated because I don’t know how to get an appointment to get vaccinated                                                              • I am eligible but I haven’t gotten vaccinated because I can’t get to a vaccination site due to where I live, time off from work, etc                                                                    • I am eligible but I haven’t gotten vaccinated because I am planning to “wait and see” the vaccine is safe and effective
-• I am eligible but I haven’t gotten vaccinated because I do not believe the vaccine is safe/effective                                                                    • Other, please specify</t>
-  </si>
-  <si>
-    <t>[Display this question if Have you received the COVID-19 vaccine = No]
-Have your feelings about getting the COVID-19 vaccine changed since it became available?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• I’m more likely to get it than I was at first           • No change in my overall feelings
-• I’m less likely to get it than I was at first    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Display this question if Have your feelings about getting the COVID-19 vaccine changed since it became available? = I’m less likely to get it than I was at first ]
-If you have become less likely to get the vaccine than you originally were, what are your reasons? Select all that apply. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">• I have heard from friends/relatives that it is unsafe
-• I have heard from TV or the internet that it is unsafe
-• I no longer think I need it
-• Other, please specify      </t>
-  </si>
-  <si>
-    <t>[Display this question if Have your feelings about getting the COVID-19 vaccine changed since it became available? = I’m more likely to get it than I was at first ]
-If you have become more likely to get the vaccine than you were at first, what are your reasons? Select all that apply.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• I learned more about the effectiveness of it from TV or the news
-• I learned more about the safety of it from TV or the news
-• My friends/family convinced me it was safe and/or effective
-• I want be able to do things that only vaccinated people can do
-• Other, please specify </t>
   </si>
   <si>
     <r>
@@ -305,7 +277,25 @@
     <t xml:space="preserve">How likely are you to get your child under 12 years of age the COVID-19 vaccine as soon as it's available? </t>
   </si>
   <si>
+    <t>• Already received           • Very likely
+• Somewhat likely                                                               • Not very likely                                                                     • Not at all likely</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMCMarch 17 - March 2057941/
+https://www.ipsos.com/en-us/news-polls/axios-ipsos-coronavirus-index</t>
+  </si>
+  <si>
+    <t>11/17/2020-11/19/2020 12/01/2020-12/03/2020   02/03/2021-02/06/2021 02/17/2021-02/19/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021  06/09/2021-06/11/2021 07/07/2021-07/09/2021 09/15/2021-09/17/2021 12/08/2021-12/14/2021</t>
+  </si>
+  <si>
     <t>Do you have a child aged 12 or older?</t>
+  </si>
+  <si>
+    <t>•Yes 
+•No</t>
+  </si>
+  <si>
+    <t>09/15/2021-09/17/2021 12/08/2021-12/14/2021</t>
   </si>
   <si>
     <t>Has your child age 12 or older received the COVID-19 vaccine?</t>
@@ -321,6 +311,206 @@
 • Other, Please specify</t>
   </si>
   <si>
+    <t xml:space="preserve">Have you received the COVID-19 vaccine? </t>
+  </si>
+  <si>
+    <t>03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021  06/09/2021-06/11/2021 07/07/2021-07/09/2021 09/15/2021-09/17/2021 12/08/2021-12/14/2021 93</t>
+  </si>
+  <si>
+    <t>Have you received a booster of the COVID-19 vaccine?</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <r>
+      <t>Do you have a child(ren) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>aged 5 or older</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Has your child(ren) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>age 5 or older</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> received the COVID-19 vaccine?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Why has your child(ren) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>age 5 or older</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> not yet received the COVID-19 vaccine?</t>
+    </r>
+  </si>
+  <si>
+    <t>• I have not been able to get an appointment for my child 
+• I can't get to a vaccination site due to where I live, time off from work, etc. 
+• I am planning to "wait and see" if the vaccine is safe and effective before my child is vaccinated
+• I do not believe the vaccine is safe/effective  
+• Not Listed (please specify)</t>
+  </si>
+  <si>
+    <r>
+      <t>How likely are you to get the COVID-19 vaccine for your child(ren)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> age 5 or older</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">• Very likely
+• Somewhat likely 
+• Not very likely 
+• Not at all likely
+</t>
+  </si>
+  <si>
+    <t>Please select the best answer about when you would have your child(ren) age 5 or older receive the COVID-19 vaccine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• In a few weeks, I am planning to "wait and see" if the vaccine is safe and effective before my child is vaccinated
+• In a few months, I am planning to "wait and see" if the vaccine is safe and effective before my child is vaccinated
+• If my child begins to attend a center, program, or school 
+• Not Listed (please specify) ________________________________________________
+• I am unlikely to ever have my child receive the COVID-19 vaccine
+</t>
+  </si>
+  <si>
+    <t>Once it becomes available, how likely are you to get the COVID-19 vaccine for your child(ren) under the age of 5?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Very likely
+• Somewhat likely
+• Not very likely
+• Not at all likely
+</t>
+  </si>
+  <si>
+    <t>How do you feel about the COVID-19 vaccine in terms of its safety and effectiveness for children under the age of 5?</t>
+  </si>
+  <si>
+    <t>[Free response]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+[Display this question if Have you received the COVID-19 vaccine = No]
+Why have you not yet received the COVID-19 vaccine? </t>
+  </si>
+  <si>
+    <t>• I am not eligible yet, based on my age, type of job, etc.
+• I am eligible but I haven't gotten vaccinated because I have not been able to get an appointment
+• I am eligible but I haven’t gotten vaccinated because I don’t know how to get an appointment to get vaccinated                                                              • I am eligible but I haven’t gotten vaccinated because I can’t get to a vaccination site due to where I live, time off from work, etc                                                                    • I am eligible but I haven’t gotten vaccinated because I am planning to “wait and see” the vaccine is safe and effective
+• I am eligible but I haven’t gotten vaccinated because I do not believe the vaccine is safe/effective                                                                    • Other, please specify</t>
+  </si>
+  <si>
+    <t>03/17/2021-03/20/2021 04/14/2021-04/16/2021 05/12/2021-05/14/2021  06/09/2021-06/11/2021 07/07/2021-07/09/2021 09/15/2021-09/17/2021 12/08/2021-12/14/2021</t>
+  </si>
+  <si>
+    <t>[Display this question if Have you received the COVID-19 vaccine = No]
+Have your feelings about getting the COVID-19 vaccine changed since it became available?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• I’m more likely to get it than I was at first           • No change in my overall feelings
+• I’m less likely to get it than I was at first    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Display this question if Have your feelings about getting the COVID-19 vaccine changed since it became available? = I’m less likely to get it than I was at first ]
+If you have become less likely to get the vaccine than you originally were, what are your reasons? Select all that apply. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• I have heard from friends/relatives that it is unsafe
+• I have heard from TV or the internet that it is unsafe
+• I no longer think I need it
+• Other, please specify      </t>
+  </si>
+  <si>
+    <t>[Display this question if Have your feelings about getting the COVID-19 vaccine changed since it became available? = I’m more likely to get it than I was at first ]
+If you have become more likely to get the vaccine than you were at first, what are your reasons? Select all that apply.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• I learned more about the effectiveness of it from TV or the news
+• I learned more about the safety of it from TV or the news
+• My friends/family convinced me it was safe and/or effective
+• I want be able to do things that only vaccinated people can do
+• Other, please specify </t>
+  </si>
+  <si>
     <t>How likely are you to get a booster of the COVID-19 vaccine as soon as it’s available?</t>
   </si>
   <si>
@@ -328,6 +518,12 @@
 • Somewhat likely
 • Not very likely
 • Not at all likely </t>
+  </si>
+  <si>
+    <t>Do you have any concerns about receiving the COVID-19 vaccine? Please explain. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/01/2020-12/03/2020   02/03/2021-02/06/2021 02/17/2021-02/19/2021 </t>
   </si>
   <si>
     <t>How likely are you to get the COVID-19 vaccine for your child between the ages of 5-12 years?</t>
@@ -340,6 +536,9 @@
 o Not at all likely </t>
   </si>
   <si>
+    <t>12/08/2021-12/14/2021</t>
+  </si>
+  <si>
     <t>Please select the best answer about when you would have your child(ren) under 12 years of age receive the COVID-19 vaccine</t>
   </si>
   <si>
@@ -359,49 +558,12 @@
 o A local pharmacy 
 o Other, please specify:  </t>
   </si>
-  <si>
-    <t xml:space="preserve">Nov 17 - Nov 19, Dec 1 - Dec 3, Dec 1 - Dec 3, Feb 3 - Feb 6, Feb 17 - Feb 19, </t>
-  </si>
-  <si>
-    <t>Nov 17 - Nov 19, Dec 1 - Dec 3, Dec 1 - Dec 3, Feb 3 - Feb 6, Feb 17 - Feb 19</t>
-  </si>
-  <si>
-    <t>Dec 1 - Dec 3, Feb 3 - Feb 6, Feb 17 - Feb 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/pmc/articles/PMCMarch 17 - March 2057941/ </t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMCMarch 17 - March 2057941/
-https://www.ipsos.com/en-us/news-polls/axios-ipsos-coronavirus-index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov 17 - Nov 19, Dec 1 - Dec 3, Dec 1 - Dec 3, Feb 3 - Feb 6, Feb 17 - Feb 19, March 17 - March 20, April 14 - April 16, May 12 - May 14, June 9 - June 11, 65, </t>
-  </si>
-  <si>
-    <t>Nov 17 - Nov 19, Dec 1 - Dec 3, Dec 1 - Dec 3, Feb 3 - Feb 6, Feb 17 - Feb 19, March 17 - March 20, April 14 - April 16, May 12 - May 14, June 9 - June 11, 65</t>
-  </si>
-  <si>
-    <t>March 17 - March 20, April 14 - April 16, May 12 - May 14, June 9 - June 11, 65, September 15 - September 17</t>
-  </si>
-  <si>
-    <t>Nov 17 - Nov 19, Dec 1 - Dec 3, Dec 1 - Dec 3, Feb 3 - Feb 6, Feb 17 - Feb 19, March 17 - March 20, April 14 - April 16, May 12 - May 14, June 9 - June 11, 65, September 15 - September 17, December 8 - December 14</t>
-  </si>
-  <si>
-    <t>September 15 - September 17, December 8 - December 14</t>
-  </si>
-  <si>
-    <t>March 17 - March 20, April 14 - April 16, May 12 - May 14, June 9 - June 11, 65, September 15 - September 17, December 8 - December 14</t>
-  </si>
-  <si>
-    <t>December 8 - December 14</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -437,6 +599,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -452,7 +629,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -486,11 +663,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFA6A6A6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -528,6 +714,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1689,23 +1893,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="35" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1722,7 +1927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="141.75">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1733,338 +1938,442 @@
         <v>7</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="141.75">
       <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="141.75">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="75">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="78.75">
       <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="105">
       <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" ht="94.5">
       <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="120">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="105">
       <c r="A10" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="173.25">
       <c r="A11" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="31.5">
       <c r="A12" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="31.5">
       <c r="A13" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="230" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="240">
       <c r="A14" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="126">
       <c r="A15" s="7" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30">
+      <c r="A16" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30">
+      <c r="A17" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30">
+      <c r="A18" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="255">
+      <c r="A19" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="75">
+      <c r="A20" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="409.6">
+      <c r="A21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="75">
+      <c r="A22" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="57">
+      <c r="A23" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="409.6">
+      <c r="A24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="110.25">
+      <c r="A25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="D25" s="8"/>
+      <c r="E25" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="150">
+      <c r="A26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="D26" s="8"/>
+      <c r="E26" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="210">
+      <c r="A27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="D27" s="8"/>
+      <c r="E27" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="60">
+      <c r="A28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="47.25">
+      <c r="A29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="118" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="157" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>61</v>
+      <c r="D29" s="12"/>
+      <c r="E29" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="78.75">
+      <c r="A30" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="78.75">
+      <c r="A31" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="141.75">
+      <c r="A32" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
